--- a/docs/gpio_alloc.xlsx
+++ b/docs/gpio_alloc.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="26311"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="26215"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/twd2/Documents/WOW_CROW/docs/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/liuminghua/Desktop/WOW_CROW/docs/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -45,12 +45,6 @@
   </si>
   <si>
     <t>P14</t>
-  </si>
-  <si>
-    <t>E20</t>
-  </si>
-  <si>
-    <t>D20</t>
   </si>
   <si>
     <t>P15</t>
@@ -97,6 +91,14 @@
     <t>BUZZ/B20</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>MUS_EN/E20</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MUS_SEL/D20</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
@@ -113,7 +115,7 @@
     <font>
       <sz val="9"/>
       <name val="等线"/>
-      <charset val="134"/>
+      <charset val="136"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -331,7 +333,7 @@
       <xdr:grpSpPr>
         <a:xfrm>
           <a:off x="239395" y="1331319"/>
-          <a:ext cx="2900073" cy="1260806"/>
+          <a:ext cx="3419116" cy="1260806"/>
           <a:chOff x="8859" y="1915"/>
           <a:chExt cx="4136" cy="1867"/>
         </a:xfrm>
@@ -3494,12 +3496,14 @@
   <dimension ref="A8:F15"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" zoomScalePageLayoutView="115" workbookViewId="0">
-      <selection activeCell="H11" sqref="H11"/>
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="16384" width="9" style="1"/>
+    <col min="1" max="3" width="9" style="1"/>
+    <col min="4" max="4" width="15.83203125" style="1" customWidth="1"/>
+    <col min="5" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
     <row r="8" spans="1:6" x14ac:dyDescent="0.2">
@@ -3509,24 +3513,24 @@
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C9" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="B9" s="1" t="s">
+      <c r="D9" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="C9" s="1" t="s">
+      <c r="E9" s="1" t="s">
         <v>22</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>8</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="F10" s="1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.2">
@@ -3537,23 +3541,23 @@
         <v>5</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="12" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F12" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B13" s="1" t="s">
         <v>0</v>
@@ -3570,24 +3574,24 @@
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.2">
       <c r="F14" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D15" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="B15" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="D15" s="1" t="s">
-        <v>19</v>
-      </c>
       <c r="E15" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
   </sheetData>

--- a/docs/gpio_alloc.xlsx
+++ b/docs/gpio_alloc.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="26215"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="26311"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/liuminghua/Desktop/WOW_CROW/docs/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/twd2/Documents/WOW_CROW/docs/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -92,11 +92,11 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>MUS_EN/E20</t>
+    <t>MUSIC_EN/E20</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>MUS_SEL/D20</t>
+    <t>MUSIC_SEL/D20</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -3496,14 +3496,14 @@
   <dimension ref="A8:F15"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" zoomScalePageLayoutView="115" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="3" width="9" style="1"/>
-    <col min="4" max="4" width="15.83203125" style="1" customWidth="1"/>
-    <col min="5" max="16384" width="9" style="1"/>
+    <col min="4" max="5" width="15.83203125" style="1" customWidth="1"/>
+    <col min="6" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
     <row r="8" spans="1:6" x14ac:dyDescent="0.2">
